--- a/docs/Planilha.xlsx
+++ b/docs/Planilha.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
   <si>
     <t>cMOOCs</t>
   </si>
@@ -34,7 +34,211 @@
     <t>Hospedagem de C.</t>
   </si>
   <si>
-    <t>xMOOC</t>
+    <t>Wiki</t>
+  </si>
+  <si>
+    <t>Calendário</t>
+  </si>
+  <si>
+    <t>Mapa</t>
+  </si>
+  <si>
+    <t>OpenID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observações:        </t>
+  </si>
+  <si>
+    <t>CCK08</t>
+  </si>
+  <si>
+    <t>gRSShopper/Twitter</t>
+  </si>
+  <si>
+    <t>Google Groups e Software desconhecido, gRSShopper?</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ustream             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Articulate   </t>
+  </si>
+  <si>
+    <t>MediaWiki</t>
+  </si>
+  <si>
+    <t>Sim (Software desconhecido)</t>
+  </si>
+  <si>
+    <t>Google Maps</t>
+  </si>
+  <si>
+    <t>Não identificado</t>
+  </si>
+  <si>
+    <t>Não foi possível fazer uma análise completa: página offline</t>
+  </si>
+  <si>
+    <t>MobiMooc</t>
+  </si>
+  <si>
+    <t>Google Groups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WizIQ          </t>
+  </si>
+  <si>
+    <t>YouTube/SlideShare</t>
+  </si>
+  <si>
+    <t>Wikispaces</t>
+  </si>
+  <si>
+    <t>EduMOOC</t>
+  </si>
+  <si>
+    <t>Google Sites/Twitter</t>
+  </si>
+  <si>
+    <t>Google Groups/Facebook/Diigo/dentro do Wikispaces</t>
+  </si>
+  <si>
+    <t>Moodle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paper.li         </t>
+  </si>
+  <si>
+    <t>Change11</t>
+  </si>
+  <si>
+    <t>gRSShopper</t>
+  </si>
+  <si>
+    <t>Facebook/Diigo/OpenStudy</t>
+  </si>
+  <si>
+    <t>Não identificado (mas possivelmente Blackboard)</t>
+  </si>
+  <si>
+    <t>Blackboard Collaborate/Skype</t>
+  </si>
+  <si>
+    <t>Servidor próprio/Coolcast</t>
+  </si>
+  <si>
+    <t>Google Calendar</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>LAK12</t>
+  </si>
+  <si>
+    <t>Diigo/Software desconhecido (possivelmente o próprio gRSShopper)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não identificado               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SlideShare   </t>
+  </si>
+  <si>
+    <t>OPCO12</t>
+  </si>
+  <si>
+    <t>WordPress</t>
+  </si>
+  <si>
+    <t>Adobe Connect</t>
+  </si>
+  <si>
+    <t>e-teaching.org</t>
+  </si>
+  <si>
+    <t>Não foi possível fazer uma análise completa: barreira linguística</t>
+  </si>
+  <si>
+    <t>MMC13</t>
+  </si>
+  <si>
+    <t>WordPress/Twitter</t>
+  </si>
+  <si>
+    <t>COER13</t>
+  </si>
+  <si>
+    <t>gRSShopper/Twitter/Google Plus</t>
+  </si>
+  <si>
+    <t>phpBB/Google Plus/Knowledge-People/Facebook</t>
+  </si>
+  <si>
+    <t>PLENK 2010</t>
+  </si>
+  <si>
+    <t>Sim, ferramenta desconhecida</t>
+  </si>
+  <si>
+    <t>ETMOOC</t>
+  </si>
+  <si>
+    <t>Google Plus</t>
+  </si>
+  <si>
+    <t>flickr/YouTube</t>
+  </si>
+  <si>
+    <t>MapAList</t>
+  </si>
+  <si>
+    <t>MM:MOOCification</t>
+  </si>
+  <si>
+    <t>Twitter</t>
+  </si>
+  <si>
+    <t>Canvas</t>
+  </si>
+  <si>
+    <t>Vimeo/Google Docs/Slideshare/Wordle/Xtranormal/Infogr.am/Piktochart</t>
+  </si>
+  <si>
+    <t>CCK11</t>
+  </si>
+  <si>
+    <t>gRSShopper/Blogger/WordPress/Twitter/del.icio.us/</t>
+  </si>
+  <si>
+    <t>Yahoo Groups/Facebook/Second Life/Google Groups</t>
+  </si>
+  <si>
+    <t>YouTube/flickr</t>
+  </si>
+  <si>
+    <t>FLTS12</t>
+  </si>
+  <si>
+    <t>Possivelmente Moodle</t>
+  </si>
+  <si>
+    <t>Blackboard Collaborate</t>
+  </si>
+  <si>
+    <t>SoundCloud/YouTube</t>
+  </si>
+  <si>
+    <t>Possivelmente o próprio WordPress</t>
+  </si>
+  <si>
+    <t>Google Hangouts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YouTube       </t>
   </si>
 </sst>
 </file>
@@ -47,8 +251,16 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
-    <font>
+  <fonts count="21">
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -200,12 +412,84 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -511,147 +795,183 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -973,36 +1293,516 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B4:J4"/>
+  <dimension ref="B4:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="4" spans="2:10">
-      <c r="B4" t="s">
+    <row r="4" spans="2:15">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I4"/>
-      <c r="J4" t="s">
+      <c r="I4" s="6"/>
+      <c r="J4" s="8" t="s">
         <v>6</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="12"/>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" t="s">
+        <v>14</v>
+      </c>
+      <c r="N13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" t="s">
+        <v>59</v>
+      </c>
+      <c r="M14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s">
+        <v>62</v>
+      </c>
+      <c r="L15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Planilha.xlsx
+++ b/docs/Planilha.xlsx
@@ -1296,7 +1296,7 @@
   <dimension ref="B4:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>

--- a/docs/Planilha.xlsx
+++ b/docs/Planilha.xlsx
@@ -1296,7 +1296,7 @@
   <dimension ref="B4:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
